--- a/MRC FROM 02082023/MBNN ALL SCHOOLS.xlsx
+++ b/MRC FROM 02082023/MBNN ALL SCHOOLS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\MRC FROM 02082023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E54CD7B-155F-4585-82A5-595CCD618AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="31" r:id="rId1"/>
@@ -44,7 +50,18 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Combined!$1:$1</definedName>
     <definedName name="rfexpend">Sheet32!$A$1:$C$47</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -630,7 +647,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -877,12 +894,6 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -892,10 +903,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -931,6 +948,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -979,7 +999,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1012,9 +1032,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1047,6 +1084,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1222,13 +1276,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L375"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A158" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -1247,67 +1301,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="26"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1323,10 +1377,10 @@
       <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="20"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="7" t="s">
         <v>88</v>
       </c>
@@ -1361,7 +1415,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -1391,7 +1445,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -1421,7 +1475,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -1451,7 +1505,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -1481,7 +1535,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -1511,7 +1565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -1541,7 +1595,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -1571,7 +1625,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -1601,7 +1655,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -1631,7 +1685,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -1670,56 +1724,56 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="20" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="6" t="s">
         <v>8</v>
       </c>
@@ -1735,10 +1789,10 @@
       <c r="G18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
       <c r="L18" s="5" t="s">
         <v>90</v>
       </c>
@@ -1773,7 +1827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2</v>
       </c>
@@ -1803,7 +1857,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>3</v>
       </c>
@@ -1833,7 +1887,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>4</v>
       </c>
@@ -1863,7 +1917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>5</v>
       </c>
@@ -1893,7 +1947,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>6</v>
       </c>
@@ -1923,7 +1977,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>7</v>
       </c>
@@ -1953,7 +2007,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>8</v>
       </c>
@@ -1983,7 +2037,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>9</v>
       </c>
@@ -2013,7 +2067,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>10</v>
       </c>
@@ -2052,56 +2106,56 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="20" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
       <c r="L30" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
@@ -2117,10 +2171,10 @@
       <c r="G31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
       <c r="L31" s="5" t="s">
         <v>91</v>
       </c>
@@ -2155,7 +2209,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>2</v>
       </c>
@@ -2185,7 +2239,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>3</v>
       </c>
@@ -2215,7 +2269,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>4</v>
       </c>
@@ -2245,7 +2299,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>5</v>
       </c>
@@ -2275,7 +2329,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>6</v>
       </c>
@@ -2305,7 +2359,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>7</v>
       </c>
@@ -2335,7 +2389,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>8</v>
       </c>
@@ -2365,7 +2419,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>9</v>
       </c>
@@ -2395,7 +2449,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>10</v>
       </c>
@@ -2425,7 +2479,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>11</v>
       </c>
@@ -2464,56 +2518,56 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="20" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="K43" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23" t="s">
+      <c r="D44" s="21"/>
+      <c r="E44" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
       <c r="L44" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="24"/>
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="6" t="s">
         <v>8</v>
       </c>
@@ -2529,10 +2583,10 @@
       <c r="G45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
       <c r="L45" s="5" t="s">
         <v>92</v>
       </c>
@@ -2567,7 +2621,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>2</v>
       </c>
@@ -2597,7 +2651,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>3</v>
       </c>
@@ -2627,7 +2681,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>4</v>
       </c>
@@ -2657,7 +2711,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>5</v>
       </c>
@@ -2687,7 +2741,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>6</v>
       </c>
@@ -2717,7 +2771,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>7</v>
       </c>
@@ -2747,7 +2801,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>8</v>
       </c>
@@ -2777,7 +2831,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>9</v>
       </c>
@@ -2807,7 +2861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>10</v>
       </c>
@@ -2837,7 +2891,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>11</v>
       </c>
@@ -2876,56 +2930,56 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="20" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I57" s="20" t="s">
+      <c r="I57" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J57" s="20" t="s">
+      <c r="J57" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K57" s="20" t="s">
+      <c r="K57" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23" t="s">
+      <c r="D58" s="21"/>
+      <c r="E58" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
       <c r="L58" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="24"/>
+    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="6" t="s">
         <v>8</v>
       </c>
@@ -2941,10 +2995,10 @@
       <c r="G59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
       <c r="L59" s="5" t="s">
         <v>93</v>
       </c>
@@ -2979,7 +3033,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>2</v>
       </c>
@@ -3009,7 +3063,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>3</v>
       </c>
@@ -3039,7 +3093,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>4</v>
       </c>
@@ -3069,7 +3123,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>5</v>
       </c>
@@ -3099,7 +3153,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>6</v>
       </c>
@@ -3129,7 +3183,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>7</v>
       </c>
@@ -3159,7 +3213,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>8</v>
       </c>
@@ -3189,7 +3243,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>9</v>
       </c>
@@ -3219,7 +3273,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>10</v>
       </c>
@@ -3258,37 +3312,37 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+    <row r="70" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23" t="s">
+      <c r="D71" s="21"/>
+      <c r="E71" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
@@ -3297,9 +3351,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="24"/>
+    <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="6" t="s">
         <v>8</v>
       </c>
@@ -3353,7 +3407,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>2</v>
       </c>
@@ -3383,7 +3437,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>3</v>
       </c>
@@ -3413,7 +3467,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>4</v>
       </c>
@@ -3443,7 +3497,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>5</v>
       </c>
@@ -3473,7 +3527,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>6</v>
       </c>
@@ -3503,7 +3557,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>7</v>
       </c>
@@ -3533,7 +3587,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>8</v>
       </c>
@@ -3563,7 +3617,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <v>9</v>
       </c>
@@ -3602,56 +3656,56 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+    <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="20" t="s">
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I82" s="20" t="s">
+      <c r="I82" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J82" s="20" t="s">
+      <c r="J82" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K82" s="20" t="s">
+      <c r="K82" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
+    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23" t="s">
+      <c r="D83" s="21"/>
+      <c r="E83" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
       <c r="L83" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="24"/>
+    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="6" t="s">
         <v>8</v>
       </c>
@@ -3667,10 +3721,10 @@
       <c r="G84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
       <c r="L84" s="5" t="s">
         <v>95</v>
       </c>
@@ -3705,7 +3759,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>2</v>
       </c>
@@ -3735,7 +3789,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>3</v>
       </c>
@@ -3765,7 +3819,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>4</v>
       </c>
@@ -3795,7 +3849,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>5</v>
       </c>
@@ -3825,7 +3879,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>6</v>
       </c>
@@ -3855,7 +3909,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>7</v>
       </c>
@@ -3885,7 +3939,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>8</v>
       </c>
@@ -3915,7 +3969,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>9</v>
       </c>
@@ -3945,7 +3999,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>10</v>
       </c>
@@ -3984,56 +4038,56 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="22" t="s">
+    <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="20" t="s">
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I95" s="20" t="s">
+      <c r="I95" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J95" s="20" t="s">
+      <c r="J95" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K95" s="20" t="s">
+      <c r="K95" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
+    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="C96" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23" t="s">
+      <c r="D96" s="21"/>
+      <c r="E96" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
       <c r="L96" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="24"/>
+    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="21"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="6" t="s">
         <v>8</v>
       </c>
@@ -4049,10 +4103,10 @@
       <c r="G97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
       <c r="L97" s="5" t="s">
         <v>96</v>
       </c>
@@ -4087,7 +4141,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>2</v>
       </c>
@@ -4117,7 +4171,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>3</v>
       </c>
@@ -4147,7 +4201,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>4</v>
       </c>
@@ -4177,7 +4231,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>5</v>
       </c>
@@ -4207,7 +4261,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>6</v>
       </c>
@@ -4237,7 +4291,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>7</v>
       </c>
@@ -4267,7 +4321,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>8</v>
       </c>
@@ -4297,7 +4351,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>9</v>
       </c>
@@ -4327,7 +4381,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>10</v>
       </c>
@@ -4357,7 +4411,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>11</v>
       </c>
@@ -4387,7 +4441,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>12</v>
       </c>
@@ -4417,7 +4471,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
         <v>13</v>
       </c>
@@ -4456,56 +4510,56 @@
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
+    <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="20" t="s">
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I111" s="20" t="s">
+      <c r="I111" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="J111" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K111" s="20" t="s">
+      <c r="K111" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="23" t="s">
+    <row r="112" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="23" t="s">
+      <c r="C112" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23" t="s">
+      <c r="D112" s="21"/>
+      <c r="E112" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="20"/>
-      <c r="K112" s="20"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="25"/>
       <c r="L112" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="23"/>
-      <c r="B113" s="24"/>
+    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="21"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="6" t="s">
         <v>8</v>
       </c>
@@ -4521,10 +4575,10 @@
       <c r="G113" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="20"/>
-      <c r="K113" s="20"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="25"/>
       <c r="L113" s="5" t="s">
         <v>97</v>
       </c>
@@ -4559,7 +4613,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>2</v>
       </c>
@@ -4589,7 +4643,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>3</v>
       </c>
@@ -4619,7 +4673,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>4</v>
       </c>
@@ -4649,7 +4703,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>5</v>
       </c>
@@ -4679,7 +4733,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>6</v>
       </c>
@@ -4709,7 +4763,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>7</v>
       </c>
@@ -4739,7 +4793,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>8</v>
       </c>
@@ -4769,7 +4823,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>9</v>
       </c>
@@ -4799,7 +4853,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>10</v>
       </c>
@@ -4829,7 +4883,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>11</v>
       </c>
@@ -4859,7 +4913,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
         <v>12</v>
       </c>
@@ -4898,56 +4952,56 @@
         <v>97</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
+    <row r="126" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="20" t="s">
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I126" s="20" t="s">
+      <c r="I126" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J126" s="20" t="s">
+      <c r="J126" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K126" s="20" t="s">
+      <c r="K126" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="23" t="s">
+    <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="B127" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C127" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23" t="s">
+      <c r="D127" s="21"/>
+      <c r="E127" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23"/>
-      <c r="H127" s="20"/>
-      <c r="I127" s="20"/>
-      <c r="J127" s="20"/>
-      <c r="K127" s="20"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="25"/>
       <c r="L127" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="23"/>
-      <c r="B128" s="24"/>
+    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="21"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="6" t="s">
         <v>8</v>
       </c>
@@ -4963,10 +5017,10 @@
       <c r="G128" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H128" s="20"/>
-      <c r="I128" s="20"/>
-      <c r="J128" s="20"/>
-      <c r="K128" s="20"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="25"/>
       <c r="L128" s="5" t="s">
         <v>98</v>
       </c>
@@ -5001,7 +5055,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>2</v>
       </c>
@@ -5031,7 +5085,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>3</v>
       </c>
@@ -5061,7 +5115,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>4</v>
       </c>
@@ -5091,7 +5145,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>5</v>
       </c>
@@ -5121,7 +5175,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>6</v>
       </c>
@@ -5151,7 +5205,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>7</v>
       </c>
@@ -5181,7 +5235,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>8</v>
       </c>
@@ -5211,7 +5265,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>9</v>
       </c>
@@ -5241,7 +5295,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>10</v>
       </c>
@@ -5271,7 +5325,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
         <v>11</v>
       </c>
@@ -5310,56 +5364,56 @@
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="22" t="s">
+    <row r="140" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="22"/>
-      <c r="E140" s="22"/>
-      <c r="F140" s="22"/>
-      <c r="G140" s="22"/>
-      <c r="H140" s="20" t="s">
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I140" s="20" t="s">
+      <c r="I140" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J140" s="20" t="s">
+      <c r="J140" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K140" s="20" t="s">
+      <c r="K140" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="23" t="s">
+    <row r="141" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B141" s="24" t="s">
+      <c r="B141" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="23" t="s">
+      <c r="C141" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="23"/>
-      <c r="E141" s="23" t="s">
+      <c r="D141" s="21"/>
+      <c r="E141" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F141" s="23"/>
-      <c r="G141" s="23"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
-      <c r="J141" s="20"/>
-      <c r="K141" s="20"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="25"/>
+      <c r="K141" s="25"/>
       <c r="L141" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="23"/>
-      <c r="B142" s="24"/>
+    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="21"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="6" t="s">
         <v>8</v>
       </c>
@@ -5375,10 +5429,10 @@
       <c r="G142" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H142" s="20"/>
-      <c r="I142" s="20"/>
-      <c r="J142" s="20"/>
-      <c r="K142" s="20"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="25"/>
+      <c r="K142" s="25"/>
       <c r="L142" s="5" t="s">
         <v>99</v>
       </c>
@@ -5413,7 +5467,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>2</v>
       </c>
@@ -5443,7 +5497,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>3</v>
       </c>
@@ -5473,7 +5527,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>4</v>
       </c>
@@ -5503,7 +5557,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>5</v>
       </c>
@@ -5533,7 +5587,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>6</v>
       </c>
@@ -5563,7 +5617,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>7</v>
       </c>
@@ -5593,7 +5647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>8</v>
       </c>
@@ -5623,7 +5677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>9</v>
       </c>
@@ -5653,7 +5707,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>10</v>
       </c>
@@ -5683,7 +5737,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10">
         <v>11</v>
       </c>
@@ -5722,56 +5776,56 @@
         <v>99</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="22" t="s">
+    <row r="154" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B154" s="22"/>
-      <c r="C154" s="22"/>
-      <c r="D154" s="22"/>
-      <c r="E154" s="22"/>
-      <c r="F154" s="22"/>
-      <c r="G154" s="22"/>
-      <c r="H154" s="20" t="s">
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I154" s="20" t="s">
+      <c r="I154" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J154" s="20" t="s">
+      <c r="J154" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K154" s="20" t="s">
+      <c r="K154" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="23" t="s">
+    <row r="155" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B155" s="24" t="s">
+      <c r="B155" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C155" s="23" t="s">
+      <c r="C155" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="23"/>
-      <c r="E155" s="23" t="s">
+      <c r="D155" s="21"/>
+      <c r="E155" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F155" s="23"/>
-      <c r="G155" s="23"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="20"/>
-      <c r="J155" s="20"/>
-      <c r="K155" s="20"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="25"/>
+      <c r="K155" s="25"/>
       <c r="L155" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="23"/>
-      <c r="B156" s="24"/>
+    <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="21"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="6" t="s">
         <v>8</v>
       </c>
@@ -5787,10 +5841,10 @@
       <c r="G156" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H156" s="20"/>
-      <c r="I156" s="20"/>
-      <c r="J156" s="20"/>
-      <c r="K156" s="20"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="25"/>
+      <c r="K156" s="25"/>
       <c r="L156" s="5" t="s">
         <v>100</v>
       </c>
@@ -5825,7 +5879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>2</v>
       </c>
@@ -5855,7 +5909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>3</v>
       </c>
@@ -5885,7 +5939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>4</v>
       </c>
@@ -5915,7 +5969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>5</v>
       </c>
@@ -5945,7 +5999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>6</v>
       </c>
@@ -5975,7 +6029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>7</v>
       </c>
@@ -6005,7 +6059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>8</v>
       </c>
@@ -6035,7 +6089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>9</v>
       </c>
@@ -6065,7 +6119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10">
         <v>10</v>
       </c>
@@ -6104,56 +6158,56 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="22" t="s">
+    <row r="167" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B167" s="22"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="22"/>
-      <c r="E167" s="22"/>
-      <c r="F167" s="22"/>
-      <c r="G167" s="22"/>
-      <c r="H167" s="20" t="s">
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="I167" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J167" s="20" t="s">
+      <c r="J167" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K167" s="20" t="s">
+      <c r="K167" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="23" t="s">
+    <row r="168" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="24" t="s">
+      <c r="B168" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C168" s="23" t="s">
+      <c r="C168" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="23"/>
-      <c r="E168" s="23" t="s">
+      <c r="D168" s="21"/>
+      <c r="E168" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F168" s="23"/>
-      <c r="G168" s="23"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="20"/>
-      <c r="J168" s="20"/>
-      <c r="K168" s="20"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="25"/>
+      <c r="I168" s="25"/>
+      <c r="J168" s="25"/>
+      <c r="K168" s="25"/>
       <c r="L168" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="23"/>
-      <c r="B169" s="24"/>
+    <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="21"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="6" t="s">
         <v>8</v>
       </c>
@@ -6169,10 +6223,10 @@
       <c r="G169" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H169" s="20"/>
-      <c r="I169" s="20"/>
-      <c r="J169" s="20"/>
-      <c r="K169" s="20"/>
+      <c r="H169" s="25"/>
+      <c r="I169" s="25"/>
+      <c r="J169" s="25"/>
+      <c r="K169" s="25"/>
       <c r="L169" s="5" t="s">
         <v>101</v>
       </c>
@@ -6207,7 +6261,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>2</v>
       </c>
@@ -6237,7 +6291,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>3</v>
       </c>
@@ -6267,7 +6321,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>4</v>
       </c>
@@ -6297,7 +6351,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>5</v>
       </c>
@@ -6327,7 +6381,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>6</v>
       </c>
@@ -6357,7 +6411,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>7</v>
       </c>
@@ -6387,7 +6441,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>8</v>
       </c>
@@ -6417,7 +6471,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>9</v>
       </c>
@@ -6447,7 +6501,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>10</v>
       </c>
@@ -6477,7 +6531,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10">
         <v>11</v>
       </c>
@@ -6516,56 +6570,56 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="22" t="s">
+    <row r="181" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B181" s="22"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="22"/>
-      <c r="F181" s="22"/>
-      <c r="G181" s="22"/>
-      <c r="H181" s="20" t="s">
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I181" s="20" t="s">
+      <c r="I181" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J181" s="20" t="s">
+      <c r="J181" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K181" s="20" t="s">
+      <c r="K181" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="23" t="s">
+    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B182" s="24" t="s">
+      <c r="B182" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C182" s="23" t="s">
+      <c r="C182" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="23"/>
-      <c r="E182" s="23" t="s">
+      <c r="D182" s="21"/>
+      <c r="E182" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F182" s="23"/>
-      <c r="G182" s="23"/>
-      <c r="H182" s="20"/>
-      <c r="I182" s="20"/>
-      <c r="J182" s="20"/>
-      <c r="K182" s="20"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="25"/>
+      <c r="I182" s="25"/>
+      <c r="J182" s="25"/>
+      <c r="K182" s="25"/>
       <c r="L182" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="23"/>
-      <c r="B183" s="24"/>
+    <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="21"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="6" t="s">
         <v>8</v>
       </c>
@@ -6581,10 +6635,10 @@
       <c r="G183" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H183" s="20"/>
-      <c r="I183" s="20"/>
-      <c r="J183" s="20"/>
-      <c r="K183" s="20"/>
+      <c r="H183" s="25"/>
+      <c r="I183" s="25"/>
+      <c r="J183" s="25"/>
+      <c r="K183" s="25"/>
       <c r="L183" s="5" t="s">
         <v>102</v>
       </c>
@@ -6619,7 +6673,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>2</v>
       </c>
@@ -6649,7 +6703,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>3</v>
       </c>
@@ -6679,7 +6733,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>4</v>
       </c>
@@ -6709,7 +6763,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>5</v>
       </c>
@@ -6739,7 +6793,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>6</v>
       </c>
@@ -6769,7 +6823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>7</v>
       </c>
@@ -6799,7 +6853,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>8</v>
       </c>
@@ -6829,7 +6883,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="192" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10">
         <v>9</v>
       </c>
@@ -6868,56 +6922,56 @@
         <v>102</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="22" t="s">
+    <row r="193" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B193" s="22"/>
-      <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="22"/>
-      <c r="F193" s="22"/>
-      <c r="G193" s="22"/>
-      <c r="H193" s="20" t="s">
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="20"/>
+      <c r="H193" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I193" s="20" t="s">
+      <c r="I193" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J193" s="20" t="s">
+      <c r="J193" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K193" s="20" t="s">
+      <c r="K193" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="23" t="s">
+    <row r="194" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B194" s="24" t="s">
+      <c r="B194" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C194" s="23" t="s">
+      <c r="C194" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D194" s="23"/>
-      <c r="E194" s="23" t="s">
+      <c r="D194" s="21"/>
+      <c r="E194" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F194" s="23"/>
-      <c r="G194" s="23"/>
-      <c r="H194" s="20"/>
-      <c r="I194" s="20"/>
-      <c r="J194" s="20"/>
-      <c r="K194" s="20"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="21"/>
+      <c r="H194" s="25"/>
+      <c r="I194" s="25"/>
+      <c r="J194" s="25"/>
+      <c r="K194" s="25"/>
       <c r="L194" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="23"/>
-      <c r="B195" s="24"/>
+    <row r="195" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="21"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="6" t="s">
         <v>8</v>
       </c>
@@ -6933,10 +6987,10 @@
       <c r="G195" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H195" s="20"/>
-      <c r="I195" s="20"/>
-      <c r="J195" s="20"/>
-      <c r="K195" s="20"/>
+      <c r="H195" s="25"/>
+      <c r="I195" s="25"/>
+      <c r="J195" s="25"/>
+      <c r="K195" s="25"/>
       <c r="L195" s="5" t="s">
         <v>103</v>
       </c>
@@ -6971,7 +7025,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>2</v>
       </c>
@@ -7001,7 +7055,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>3</v>
       </c>
@@ -7031,7 +7085,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>4</v>
       </c>
@@ -7061,7 +7115,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>5</v>
       </c>
@@ -7091,7 +7145,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>6</v>
       </c>
@@ -7121,7 +7175,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>7</v>
       </c>
@@ -7151,7 +7205,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>8</v>
       </c>
@@ -7181,7 +7235,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>9</v>
       </c>
@@ -7211,7 +7265,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="205" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10">
         <v>10</v>
       </c>
@@ -7250,56 +7304,56 @@
         <v>103</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="22" t="s">
+    <row r="206" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B206" s="22"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="22"/>
-      <c r="E206" s="22"/>
-      <c r="F206" s="22"/>
-      <c r="G206" s="22"/>
-      <c r="H206" s="20" t="s">
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I206" s="20" t="s">
+      <c r="I206" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J206" s="20" t="s">
+      <c r="J206" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K206" s="20" t="s">
+      <c r="K206" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="23" t="s">
+    <row r="207" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B207" s="24" t="s">
+      <c r="B207" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C207" s="23" t="s">
+      <c r="C207" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D207" s="23"/>
-      <c r="E207" s="23" t="s">
+      <c r="D207" s="21"/>
+      <c r="E207" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F207" s="23"/>
-      <c r="G207" s="23"/>
-      <c r="H207" s="20"/>
-      <c r="I207" s="20"/>
-      <c r="J207" s="20"/>
-      <c r="K207" s="20"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="25"/>
+      <c r="I207" s="25"/>
+      <c r="J207" s="25"/>
+      <c r="K207" s="25"/>
       <c r="L207" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="23"/>
-      <c r="B208" s="24"/>
+    <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="21"/>
+      <c r="B208" s="22"/>
       <c r="C208" s="6" t="s">
         <v>8</v>
       </c>
@@ -7315,10 +7369,10 @@
       <c r="G208" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H208" s="20"/>
-      <c r="I208" s="20"/>
-      <c r="J208" s="20"/>
-      <c r="K208" s="20"/>
+      <c r="H208" s="25"/>
+      <c r="I208" s="25"/>
+      <c r="J208" s="25"/>
+      <c r="K208" s="25"/>
       <c r="L208" s="5" t="s">
         <v>104</v>
       </c>
@@ -7353,7 +7407,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>2</v>
       </c>
@@ -7383,7 +7437,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>3</v>
       </c>
@@ -7413,7 +7467,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>4</v>
       </c>
@@ -7443,7 +7497,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>5</v>
       </c>
@@ -7473,7 +7527,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>6</v>
       </c>
@@ -7503,7 +7557,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>7</v>
       </c>
@@ -7533,7 +7587,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>8</v>
       </c>
@@ -7563,7 +7617,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>9</v>
       </c>
@@ -7593,7 +7647,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>10</v>
       </c>
@@ -7623,7 +7677,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>11</v>
       </c>
@@ -7653,7 +7707,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="220" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10">
         <v>12</v>
       </c>
@@ -7692,56 +7746,56 @@
         <v>104</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="22" t="s">
+    <row r="221" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B221" s="22"/>
-      <c r="C221" s="22"/>
-      <c r="D221" s="22"/>
-      <c r="E221" s="22"/>
-      <c r="F221" s="22"/>
-      <c r="G221" s="22"/>
-      <c r="H221" s="20" t="s">
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="20"/>
+      <c r="H221" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I221" s="20" t="s">
+      <c r="I221" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J221" s="20" t="s">
+      <c r="J221" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K221" s="20" t="s">
+      <c r="K221" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="23" t="s">
+    <row r="222" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B222" s="24" t="s">
+      <c r="B222" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C222" s="23" t="s">
+      <c r="C222" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D222" s="23"/>
-      <c r="E222" s="23" t="s">
+      <c r="D222" s="21"/>
+      <c r="E222" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F222" s="23"/>
-      <c r="G222" s="23"/>
-      <c r="H222" s="20"/>
-      <c r="I222" s="20"/>
-      <c r="J222" s="20"/>
-      <c r="K222" s="20"/>
+      <c r="F222" s="21"/>
+      <c r="G222" s="21"/>
+      <c r="H222" s="25"/>
+      <c r="I222" s="25"/>
+      <c r="J222" s="25"/>
+      <c r="K222" s="25"/>
       <c r="L222" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="23"/>
-      <c r="B223" s="24"/>
+    <row r="223" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="21"/>
+      <c r="B223" s="22"/>
       <c r="C223" s="6" t="s">
         <v>8</v>
       </c>
@@ -7757,10 +7811,10 @@
       <c r="G223" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H223" s="20"/>
-      <c r="I223" s="20"/>
-      <c r="J223" s="20"/>
-      <c r="K223" s="20"/>
+      <c r="H223" s="25"/>
+      <c r="I223" s="25"/>
+      <c r="J223" s="25"/>
+      <c r="K223" s="25"/>
       <c r="L223" s="5" t="s">
         <v>105</v>
       </c>
@@ -7795,7 +7849,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>2</v>
       </c>
@@ -7825,7 +7879,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>3</v>
       </c>
@@ -7855,7 +7909,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>4</v>
       </c>
@@ -7885,7 +7939,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>5</v>
       </c>
@@ -7915,7 +7969,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>6</v>
       </c>
@@ -7945,7 +7999,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>7</v>
       </c>
@@ -7975,7 +8029,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>8</v>
       </c>
@@ -8005,7 +8059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
         <v>9</v>
       </c>
@@ -8035,7 +8089,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>10</v>
       </c>
@@ -8065,7 +8119,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="234" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10">
         <v>11</v>
       </c>
@@ -8104,56 +8158,56 @@
         <v>105</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="22" t="s">
+    <row r="235" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B235" s="22"/>
-      <c r="C235" s="22"/>
-      <c r="D235" s="22"/>
-      <c r="E235" s="22"/>
-      <c r="F235" s="22"/>
-      <c r="G235" s="22"/>
-      <c r="H235" s="20" t="s">
+      <c r="B235" s="20"/>
+      <c r="C235" s="20"/>
+      <c r="D235" s="20"/>
+      <c r="E235" s="20"/>
+      <c r="F235" s="20"/>
+      <c r="G235" s="20"/>
+      <c r="H235" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I235" s="20" t="s">
+      <c r="I235" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J235" s="20" t="s">
+      <c r="J235" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K235" s="20" t="s">
+      <c r="K235" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="23" t="s">
+    <row r="236" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B236" s="24" t="s">
+      <c r="B236" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C236" s="23" t="s">
+      <c r="C236" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D236" s="23"/>
-      <c r="E236" s="23" t="s">
+      <c r="D236" s="21"/>
+      <c r="E236" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F236" s="23"/>
-      <c r="G236" s="23"/>
-      <c r="H236" s="20"/>
-      <c r="I236" s="20"/>
-      <c r="J236" s="20"/>
-      <c r="K236" s="20"/>
+      <c r="F236" s="21"/>
+      <c r="G236" s="21"/>
+      <c r="H236" s="25"/>
+      <c r="I236" s="25"/>
+      <c r="J236" s="25"/>
+      <c r="K236" s="25"/>
       <c r="L236" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="23"/>
-      <c r="B237" s="24"/>
+    <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="21"/>
+      <c r="B237" s="22"/>
       <c r="C237" s="6" t="s">
         <v>8</v>
       </c>
@@ -8169,10 +8223,10 @@
       <c r="G237" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H237" s="20"/>
-      <c r="I237" s="20"/>
-      <c r="J237" s="20"/>
-      <c r="K237" s="20"/>
+      <c r="H237" s="25"/>
+      <c r="I237" s="25"/>
+      <c r="J237" s="25"/>
+      <c r="K237" s="25"/>
       <c r="L237" s="5" t="s">
         <v>106</v>
       </c>
@@ -8207,7 +8261,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>2</v>
       </c>
@@ -8237,7 +8291,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>3</v>
       </c>
@@ -8267,7 +8321,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>4</v>
       </c>
@@ -8297,7 +8351,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>5</v>
       </c>
@@ -8327,7 +8381,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>6</v>
       </c>
@@ -8357,7 +8411,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>7</v>
       </c>
@@ -8387,7 +8441,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>8</v>
       </c>
@@ -8417,7 +8471,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>9</v>
       </c>
@@ -8447,7 +8501,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>10</v>
       </c>
@@ -8477,7 +8531,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="248" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10">
         <v>11</v>
       </c>
@@ -8516,56 +8570,56 @@
         <v>106</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="22" t="s">
+    <row r="249" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B249" s="22"/>
-      <c r="C249" s="22"/>
-      <c r="D249" s="22"/>
-      <c r="E249" s="22"/>
-      <c r="F249" s="22"/>
-      <c r="G249" s="22"/>
-      <c r="H249" s="20" t="s">
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="20"/>
+      <c r="E249" s="20"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="20"/>
+      <c r="H249" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I249" s="20" t="s">
+      <c r="I249" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J249" s="20" t="s">
+      <c r="J249" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K249" s="20" t="s">
+      <c r="K249" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="23" t="s">
+    <row r="250" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B250" s="24" t="s">
+      <c r="B250" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C250" s="23" t="s">
+      <c r="C250" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D250" s="23"/>
-      <c r="E250" s="23" t="s">
+      <c r="D250" s="21"/>
+      <c r="E250" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F250" s="23"/>
-      <c r="G250" s="23"/>
-      <c r="H250" s="20"/>
-      <c r="I250" s="20"/>
-      <c r="J250" s="20"/>
-      <c r="K250" s="20"/>
+      <c r="F250" s="21"/>
+      <c r="G250" s="21"/>
+      <c r="H250" s="25"/>
+      <c r="I250" s="25"/>
+      <c r="J250" s="25"/>
+      <c r="K250" s="25"/>
       <c r="L250" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="23"/>
-      <c r="B251" s="24"/>
+    <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="21"/>
+      <c r="B251" s="22"/>
       <c r="C251" s="6" t="s">
         <v>8</v>
       </c>
@@ -8581,10 +8635,10 @@
       <c r="G251" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H251" s="20"/>
-      <c r="I251" s="20"/>
-      <c r="J251" s="20"/>
-      <c r="K251" s="20"/>
+      <c r="H251" s="25"/>
+      <c r="I251" s="25"/>
+      <c r="J251" s="25"/>
+      <c r="K251" s="25"/>
       <c r="L251" s="5" t="s">
         <v>107</v>
       </c>
@@ -8619,7 +8673,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>2</v>
       </c>
@@ -8649,7 +8703,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>3</v>
       </c>
@@ -8679,7 +8733,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>4</v>
       </c>
@@ -8709,7 +8763,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>5</v>
       </c>
@@ -8739,7 +8793,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>6</v>
       </c>
@@ -8769,7 +8823,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>7</v>
       </c>
@@ -8799,7 +8853,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>8</v>
       </c>
@@ -8829,7 +8883,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
         <v>9</v>
       </c>
@@ -8859,7 +8913,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
         <v>10</v>
       </c>
@@ -8889,7 +8943,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="262" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10">
         <v>11</v>
       </c>
@@ -8928,56 +8982,56 @@
         <v>107</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="25" t="s">
+    <row r="263" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B263" s="25"/>
-      <c r="C263" s="25"/>
-      <c r="D263" s="25"/>
-      <c r="E263" s="25"/>
-      <c r="F263" s="25"/>
-      <c r="G263" s="25"/>
-      <c r="H263" s="20" t="s">
+      <c r="B263" s="24"/>
+      <c r="C263" s="24"/>
+      <c r="D263" s="24"/>
+      <c r="E263" s="24"/>
+      <c r="F263" s="24"/>
+      <c r="G263" s="24"/>
+      <c r="H263" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I263" s="20" t="s">
+      <c r="I263" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J263" s="20" t="s">
+      <c r="J263" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K263" s="20" t="s">
+      <c r="K263" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="23" t="s">
+    <row r="264" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B264" s="24" t="s">
+      <c r="B264" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C264" s="23" t="s">
+      <c r="C264" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D264" s="23"/>
-      <c r="E264" s="23" t="s">
+      <c r="D264" s="21"/>
+      <c r="E264" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F264" s="23"/>
-      <c r="G264" s="23"/>
-      <c r="H264" s="20"/>
-      <c r="I264" s="20"/>
-      <c r="J264" s="20"/>
-      <c r="K264" s="20"/>
+      <c r="F264" s="21"/>
+      <c r="G264" s="21"/>
+      <c r="H264" s="25"/>
+      <c r="I264" s="25"/>
+      <c r="J264" s="25"/>
+      <c r="K264" s="25"/>
       <c r="L264" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="23"/>
-      <c r="B265" s="24"/>
+    <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="21"/>
+      <c r="B265" s="22"/>
       <c r="C265" s="6" t="s">
         <v>8</v>
       </c>
@@ -8993,10 +9047,10 @@
       <c r="G265" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H265" s="20"/>
-      <c r="I265" s="20"/>
-      <c r="J265" s="20"/>
-      <c r="K265" s="20"/>
+      <c r="H265" s="25"/>
+      <c r="I265" s="25"/>
+      <c r="J265" s="25"/>
+      <c r="K265" s="25"/>
       <c r="L265" s="5" t="s">
         <v>108</v>
       </c>
@@ -9031,7 +9085,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>2</v>
       </c>
@@ -9061,7 +9115,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>3</v>
       </c>
@@ -9091,7 +9145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>4</v>
       </c>
@@ -9121,7 +9175,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>5</v>
       </c>
@@ -9151,7 +9205,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>6</v>
       </c>
@@ -9181,7 +9235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>7</v>
       </c>
@@ -9211,7 +9265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>8</v>
       </c>
@@ -9241,7 +9295,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>9</v>
       </c>
@@ -9271,7 +9325,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>10</v>
       </c>
@@ -9301,7 +9355,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="276" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="10">
         <v>11</v>
       </c>
@@ -9340,56 +9394,56 @@
         <v>108</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="22" t="s">
+    <row r="277" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B277" s="22"/>
-      <c r="C277" s="22"/>
-      <c r="D277" s="22"/>
-      <c r="E277" s="22"/>
-      <c r="F277" s="22"/>
-      <c r="G277" s="22"/>
-      <c r="H277" s="20" t="s">
+      <c r="B277" s="20"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="20"/>
+      <c r="E277" s="20"/>
+      <c r="F277" s="20"/>
+      <c r="G277" s="20"/>
+      <c r="H277" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I277" s="20" t="s">
+      <c r="I277" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J277" s="20" t="s">
+      <c r="J277" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K277" s="20" t="s">
+      <c r="K277" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="23" t="s">
+    <row r="278" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B278" s="24" t="s">
+      <c r="B278" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C278" s="23" t="s">
+      <c r="C278" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D278" s="23"/>
-      <c r="E278" s="23" t="s">
+      <c r="D278" s="21"/>
+      <c r="E278" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F278" s="23"/>
-      <c r="G278" s="23"/>
-      <c r="H278" s="20"/>
-      <c r="I278" s="20"/>
-      <c r="J278" s="20"/>
-      <c r="K278" s="20"/>
+      <c r="F278" s="21"/>
+      <c r="G278" s="21"/>
+      <c r="H278" s="25"/>
+      <c r="I278" s="25"/>
+      <c r="J278" s="25"/>
+      <c r="K278" s="25"/>
       <c r="L278" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="23"/>
-      <c r="B279" s="24"/>
+    <row r="279" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="21"/>
+      <c r="B279" s="22"/>
       <c r="C279" s="6" t="s">
         <v>8</v>
       </c>
@@ -9405,10 +9459,10 @@
       <c r="G279" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H279" s="20"/>
-      <c r="I279" s="20"/>
-      <c r="J279" s="20"/>
-      <c r="K279" s="20"/>
+      <c r="H279" s="25"/>
+      <c r="I279" s="25"/>
+      <c r="J279" s="25"/>
+      <c r="K279" s="25"/>
       <c r="L279" s="5" t="s">
         <v>109</v>
       </c>
@@ -9443,7 +9497,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>2</v>
       </c>
@@ -9473,7 +9527,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>3</v>
       </c>
@@ -9503,7 +9557,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>4</v>
       </c>
@@ -9533,7 +9587,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>5</v>
       </c>
@@ -9563,7 +9617,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>6</v>
       </c>
@@ -9593,7 +9647,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>7</v>
       </c>
@@ -9623,7 +9677,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>8</v>
       </c>
@@ -9653,7 +9707,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
         <v>9</v>
       </c>
@@ -9683,7 +9737,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="289" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="10">
         <v>10</v>
       </c>
@@ -9722,56 +9776,56 @@
         <v>109</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="22" t="s">
+    <row r="290" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B290" s="22"/>
-      <c r="C290" s="22"/>
-      <c r="D290" s="22"/>
-      <c r="E290" s="22"/>
-      <c r="F290" s="22"/>
-      <c r="G290" s="22"/>
-      <c r="H290" s="20" t="s">
+      <c r="B290" s="20"/>
+      <c r="C290" s="20"/>
+      <c r="D290" s="20"/>
+      <c r="E290" s="20"/>
+      <c r="F290" s="20"/>
+      <c r="G290" s="20"/>
+      <c r="H290" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I290" s="20" t="s">
+      <c r="I290" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J290" s="20" t="s">
+      <c r="J290" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K290" s="20" t="s">
+      <c r="K290" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="23" t="s">
+    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B291" s="24" t="s">
+      <c r="B291" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C291" s="23" t="s">
+      <c r="C291" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D291" s="23"/>
-      <c r="E291" s="23" t="s">
+      <c r="D291" s="21"/>
+      <c r="E291" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F291" s="23"/>
-      <c r="G291" s="23"/>
-      <c r="H291" s="20"/>
-      <c r="I291" s="20"/>
-      <c r="J291" s="20"/>
-      <c r="K291" s="20"/>
+      <c r="F291" s="21"/>
+      <c r="G291" s="21"/>
+      <c r="H291" s="25"/>
+      <c r="I291" s="25"/>
+      <c r="J291" s="25"/>
+      <c r="K291" s="25"/>
       <c r="L291" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="23"/>
-      <c r="B292" s="24"/>
+    <row r="292" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" s="21"/>
+      <c r="B292" s="22"/>
       <c r="C292" s="6" t="s">
         <v>8</v>
       </c>
@@ -9787,10 +9841,10 @@
       <c r="G292" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H292" s="20"/>
-      <c r="I292" s="20"/>
-      <c r="J292" s="20"/>
-      <c r="K292" s="20"/>
+      <c r="H292" s="25"/>
+      <c r="I292" s="25"/>
+      <c r="J292" s="25"/>
+      <c r="K292" s="25"/>
       <c r="L292" s="5" t="s">
         <v>110</v>
       </c>
@@ -9825,7 +9879,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>2</v>
       </c>
@@ -9855,7 +9909,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>3</v>
       </c>
@@ -9885,7 +9939,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>4</v>
       </c>
@@ -9915,7 +9969,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>5</v>
       </c>
@@ -9945,7 +9999,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>6</v>
       </c>
@@ -9975,7 +10029,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
         <v>7</v>
       </c>
@@ -10005,7 +10059,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
         <v>8</v>
       </c>
@@ -10035,7 +10089,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
         <v>9</v>
       </c>
@@ -10065,7 +10119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
         <v>10</v>
       </c>
@@ -10095,7 +10149,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="303" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="10">
         <v>11</v>
       </c>
@@ -10134,56 +10188,56 @@
         <v>110</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="22" t="s">
+    <row r="304" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="B304" s="22"/>
-      <c r="C304" s="22"/>
-      <c r="D304" s="22"/>
-      <c r="E304" s="22"/>
-      <c r="F304" s="22"/>
-      <c r="G304" s="22"/>
-      <c r="H304" s="20" t="s">
+      <c r="B304" s="20"/>
+      <c r="C304" s="20"/>
+      <c r="D304" s="20"/>
+      <c r="E304" s="20"/>
+      <c r="F304" s="20"/>
+      <c r="G304" s="20"/>
+      <c r="H304" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I304" s="20" t="s">
+      <c r="I304" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J304" s="20" t="s">
+      <c r="J304" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K304" s="20" t="s">
+      <c r="K304" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="23" t="s">
+    <row r="305" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B305" s="24" t="s">
+      <c r="B305" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C305" s="23" t="s">
+      <c r="C305" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D305" s="23"/>
-      <c r="E305" s="23" t="s">
+      <c r="D305" s="21"/>
+      <c r="E305" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F305" s="23"/>
-      <c r="G305" s="23"/>
-      <c r="H305" s="20"/>
-      <c r="I305" s="20"/>
-      <c r="J305" s="20"/>
-      <c r="K305" s="20"/>
+      <c r="F305" s="21"/>
+      <c r="G305" s="21"/>
+      <c r="H305" s="25"/>
+      <c r="I305" s="25"/>
+      <c r="J305" s="25"/>
+      <c r="K305" s="25"/>
       <c r="L305" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="23"/>
-      <c r="B306" s="24"/>
+    <row r="306" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A306" s="21"/>
+      <c r="B306" s="22"/>
       <c r="C306" s="6" t="s">
         <v>8</v>
       </c>
@@ -10199,10 +10253,10 @@
       <c r="G306" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H306" s="20"/>
-      <c r="I306" s="20"/>
-      <c r="J306" s="20"/>
-      <c r="K306" s="20"/>
+      <c r="H306" s="25"/>
+      <c r="I306" s="25"/>
+      <c r="J306" s="25"/>
+      <c r="K306" s="25"/>
       <c r="L306" s="5" t="s">
         <v>111</v>
       </c>
@@ -10237,7 +10291,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
         <v>2</v>
       </c>
@@ -10267,7 +10321,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
         <v>3</v>
       </c>
@@ -10297,7 +10351,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
         <v>4</v>
       </c>
@@ -10327,7 +10381,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
         <v>5</v>
       </c>
@@ -10357,7 +10411,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
         <v>6</v>
       </c>
@@ -10387,7 +10441,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
         <v>7</v>
       </c>
@@ -10417,7 +10471,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
         <v>8</v>
       </c>
@@ -10447,7 +10501,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
         <v>9</v>
       </c>
@@ -10477,7 +10531,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
         <v>10</v>
       </c>
@@ -10507,7 +10561,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="317" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10">
         <v>11</v>
       </c>
@@ -10546,56 +10600,56 @@
         <v>111</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="22" t="s">
+    <row r="318" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B318" s="22"/>
-      <c r="C318" s="22"/>
-      <c r="D318" s="22"/>
-      <c r="E318" s="22"/>
-      <c r="F318" s="22"/>
-      <c r="G318" s="22"/>
-      <c r="H318" s="20" t="s">
+      <c r="B318" s="20"/>
+      <c r="C318" s="20"/>
+      <c r="D318" s="20"/>
+      <c r="E318" s="20"/>
+      <c r="F318" s="20"/>
+      <c r="G318" s="20"/>
+      <c r="H318" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I318" s="20" t="s">
+      <c r="I318" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J318" s="20" t="s">
+      <c r="J318" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K318" s="20" t="s">
+      <c r="K318" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="23" t="s">
+    <row r="319" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B319" s="24" t="s">
+      <c r="B319" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C319" s="23" t="s">
+      <c r="C319" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D319" s="23"/>
-      <c r="E319" s="23" t="s">
+      <c r="D319" s="21"/>
+      <c r="E319" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F319" s="23"/>
-      <c r="G319" s="23"/>
-      <c r="H319" s="20"/>
-      <c r="I319" s="20"/>
-      <c r="J319" s="20"/>
-      <c r="K319" s="20"/>
+      <c r="F319" s="21"/>
+      <c r="G319" s="21"/>
+      <c r="H319" s="25"/>
+      <c r="I319" s="25"/>
+      <c r="J319" s="25"/>
+      <c r="K319" s="25"/>
       <c r="L319" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="23"/>
-      <c r="B320" s="24"/>
+    <row r="320" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A320" s="21"/>
+      <c r="B320" s="22"/>
       <c r="C320" s="6" t="s">
         <v>8</v>
       </c>
@@ -10611,10 +10665,10 @@
       <c r="G320" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H320" s="20"/>
-      <c r="I320" s="20"/>
-      <c r="J320" s="20"/>
-      <c r="K320" s="20"/>
+      <c r="H320" s="25"/>
+      <c r="I320" s="25"/>
+      <c r="J320" s="25"/>
+      <c r="K320" s="25"/>
       <c r="L320" s="5" t="s">
         <v>112</v>
       </c>
@@ -10649,7 +10703,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
         <v>2</v>
       </c>
@@ -10679,7 +10733,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
         <v>3</v>
       </c>
@@ -10709,7 +10763,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
         <v>4</v>
       </c>
@@ -10739,7 +10793,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
         <v>5</v>
       </c>
@@ -10769,7 +10823,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
         <v>6</v>
       </c>
@@ -10799,7 +10853,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
         <v>7</v>
       </c>
@@ -10829,7 +10883,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>8</v>
       </c>
@@ -10859,7 +10913,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="329" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="10">
         <v>9</v>
       </c>
@@ -10898,56 +10952,56 @@
         <v>112</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="22" t="s">
+    <row r="330" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="B330" s="22"/>
-      <c r="C330" s="22"/>
-      <c r="D330" s="22"/>
-      <c r="E330" s="22"/>
-      <c r="F330" s="22"/>
-      <c r="G330" s="22"/>
-      <c r="H330" s="20" t="s">
+      <c r="B330" s="20"/>
+      <c r="C330" s="20"/>
+      <c r="D330" s="20"/>
+      <c r="E330" s="20"/>
+      <c r="F330" s="20"/>
+      <c r="G330" s="20"/>
+      <c r="H330" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I330" s="20" t="s">
+      <c r="I330" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J330" s="20" t="s">
+      <c r="J330" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K330" s="20" t="s">
+      <c r="K330" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="23" t="s">
+    <row r="331" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B331" s="24" t="s">
+      <c r="B331" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C331" s="23" t="s">
+      <c r="C331" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D331" s="23"/>
-      <c r="E331" s="23" t="s">
+      <c r="D331" s="21"/>
+      <c r="E331" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F331" s="23"/>
-      <c r="G331" s="23"/>
-      <c r="H331" s="20"/>
-      <c r="I331" s="20"/>
-      <c r="J331" s="20"/>
-      <c r="K331" s="20"/>
+      <c r="F331" s="21"/>
+      <c r="G331" s="21"/>
+      <c r="H331" s="25"/>
+      <c r="I331" s="25"/>
+      <c r="J331" s="25"/>
+      <c r="K331" s="25"/>
       <c r="L331" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="23"/>
-      <c r="B332" s="24"/>
+    <row r="332" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A332" s="21"/>
+      <c r="B332" s="22"/>
       <c r="C332" s="6" t="s">
         <v>8</v>
       </c>
@@ -10963,10 +11017,10 @@
       <c r="G332" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H332" s="20"/>
-      <c r="I332" s="20"/>
-      <c r="J332" s="20"/>
-      <c r="K332" s="20"/>
+      <c r="H332" s="25"/>
+      <c r="I332" s="25"/>
+      <c r="J332" s="25"/>
+      <c r="K332" s="25"/>
       <c r="L332" s="5" t="s">
         <v>113</v>
       </c>
@@ -11001,7 +11055,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>2</v>
       </c>
@@ -11031,7 +11085,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>3</v>
       </c>
@@ -11061,7 +11115,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>4</v>
       </c>
@@ -11091,7 +11145,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>5</v>
       </c>
@@ -11121,7 +11175,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>6</v>
       </c>
@@ -11151,7 +11205,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>7</v>
       </c>
@@ -11181,7 +11235,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>8</v>
       </c>
@@ -11211,7 +11265,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>9</v>
       </c>
@@ -11241,7 +11295,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="342" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="10">
         <v>10</v>
       </c>
@@ -11280,56 +11334,56 @@
         <v>113</v>
       </c>
     </row>
-    <row r="343" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="22" t="s">
+    <row r="343" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B343" s="22"/>
-      <c r="C343" s="22"/>
-      <c r="D343" s="22"/>
-      <c r="E343" s="22"/>
-      <c r="F343" s="22"/>
-      <c r="G343" s="22"/>
-      <c r="H343" s="20" t="s">
+      <c r="B343" s="20"/>
+      <c r="C343" s="20"/>
+      <c r="D343" s="20"/>
+      <c r="E343" s="20"/>
+      <c r="F343" s="20"/>
+      <c r="G343" s="20"/>
+      <c r="H343" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I343" s="20" t="s">
+      <c r="I343" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J343" s="20" t="s">
+      <c r="J343" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K343" s="20" t="s">
+      <c r="K343" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="344" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="23" t="s">
+    <row r="344" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B344" s="24" t="s">
+      <c r="B344" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C344" s="23" t="s">
+      <c r="C344" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D344" s="23"/>
-      <c r="E344" s="23" t="s">
+      <c r="D344" s="21"/>
+      <c r="E344" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F344" s="23"/>
-      <c r="G344" s="23"/>
-      <c r="H344" s="20"/>
-      <c r="I344" s="20"/>
-      <c r="J344" s="20"/>
-      <c r="K344" s="20"/>
+      <c r="F344" s="21"/>
+      <c r="G344" s="21"/>
+      <c r="H344" s="25"/>
+      <c r="I344" s="25"/>
+      <c r="J344" s="25"/>
+      <c r="K344" s="25"/>
       <c r="L344" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="23"/>
-      <c r="B345" s="24"/>
+    <row r="345" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345" s="21"/>
+      <c r="B345" s="22"/>
       <c r="C345" s="6" t="s">
         <v>8</v>
       </c>
@@ -11345,10 +11399,10 @@
       <c r="G345" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H345" s="20"/>
-      <c r="I345" s="20"/>
-      <c r="J345" s="20"/>
-      <c r="K345" s="20"/>
+      <c r="H345" s="25"/>
+      <c r="I345" s="25"/>
+      <c r="J345" s="25"/>
+      <c r="K345" s="25"/>
       <c r="L345" s="5" t="s">
         <v>114</v>
       </c>
@@ -11383,7 +11437,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>2</v>
       </c>
@@ -11413,7 +11467,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>3</v>
       </c>
@@ -11443,7 +11497,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
         <v>4</v>
       </c>
@@ -11473,7 +11527,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>5</v>
       </c>
@@ -11503,7 +11557,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>6</v>
       </c>
@@ -11533,7 +11587,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>7</v>
       </c>
@@ -11563,7 +11617,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
         <v>8</v>
       </c>
@@ -11593,7 +11647,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
         <v>9</v>
       </c>
@@ -11623,7 +11677,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
         <v>10</v>
       </c>
@@ -11653,7 +11707,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
         <v>11</v>
       </c>
@@ -11683,7 +11737,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="357" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="10">
         <v>12</v>
       </c>
@@ -11722,56 +11776,56 @@
         <v>114</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="22" t="s">
+    <row r="358" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B358" s="22"/>
-      <c r="C358" s="22"/>
-      <c r="D358" s="22"/>
-      <c r="E358" s="22"/>
-      <c r="F358" s="22"/>
-      <c r="G358" s="22"/>
-      <c r="H358" s="20" t="s">
+      <c r="B358" s="20"/>
+      <c r="C358" s="20"/>
+      <c r="D358" s="20"/>
+      <c r="E358" s="20"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="20"/>
+      <c r="H358" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I358" s="20" t="s">
+      <c r="I358" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J358" s="20" t="s">
+      <c r="J358" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K358" s="20" t="s">
+      <c r="K358" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="23" t="s">
+    <row r="359" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B359" s="24" t="s">
+      <c r="B359" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C359" s="23" t="s">
+      <c r="C359" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D359" s="23"/>
-      <c r="E359" s="23" t="s">
+      <c r="D359" s="21"/>
+      <c r="E359" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F359" s="23"/>
-      <c r="G359" s="23"/>
-      <c r="H359" s="20"/>
-      <c r="I359" s="20"/>
-      <c r="J359" s="20"/>
-      <c r="K359" s="20"/>
+      <c r="F359" s="21"/>
+      <c r="G359" s="21"/>
+      <c r="H359" s="25"/>
+      <c r="I359" s="25"/>
+      <c r="J359" s="25"/>
+      <c r="K359" s="25"/>
       <c r="L359" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="360" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="23"/>
-      <c r="B360" s="24"/>
+    <row r="360" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A360" s="21"/>
+      <c r="B360" s="22"/>
       <c r="C360" s="6" t="s">
         <v>8</v>
       </c>
@@ -11787,10 +11841,10 @@
       <c r="G360" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H360" s="20"/>
-      <c r="I360" s="20"/>
-      <c r="J360" s="20"/>
-      <c r="K360" s="20"/>
+      <c r="H360" s="25"/>
+      <c r="I360" s="25"/>
+      <c r="J360" s="25"/>
+      <c r="K360" s="25"/>
       <c r="L360" s="5" t="s">
         <v>63</v>
       </c>
@@ -11825,7 +11879,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
         <v>2</v>
       </c>
@@ -11855,7 +11909,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
         <v>3</v>
       </c>
@@ -11885,7 +11939,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="8">
         <v>4</v>
       </c>
@@ -11915,7 +11969,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
         <v>5</v>
       </c>
@@ -11945,7 +11999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
         <v>6</v>
       </c>
@@ -11975,7 +12029,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="8">
         <v>7</v>
       </c>
@@ -12005,7 +12059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
         <v>8</v>
       </c>
@@ -12035,7 +12089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="8">
         <v>9</v>
       </c>
@@ -12065,7 +12119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="8">
         <v>10</v>
       </c>
@@ -12095,7 +12149,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
         <v>11</v>
       </c>
@@ -12125,7 +12179,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
         <v>12</v>
       </c>
@@ -12155,7 +12209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="8">
         <v>13</v>
       </c>
@@ -12185,7 +12239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="8">
         <v>14</v>
       </c>
@@ -12215,7 +12269,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="375" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="10">
         <v>15</v>
       </c>
@@ -12256,110 +12310,128 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:M375">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Construction of Toilet with Running Water"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:M375" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="240">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A82:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="A70:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="A111:G111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="A140:G140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="E141:G141"/>
-    <mergeCell ref="A126:G126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="A167:G167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="E168:G168"/>
-    <mergeCell ref="A154:G154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="E155:G155"/>
-    <mergeCell ref="A193:G193"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E194:G194"/>
-    <mergeCell ref="A181:G181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E182:G182"/>
-    <mergeCell ref="A221:G221"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="C222:D222"/>
-    <mergeCell ref="E222:G222"/>
-    <mergeCell ref="A206:G206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="E207:G207"/>
-    <mergeCell ref="A249:G249"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="E250:G250"/>
-    <mergeCell ref="A235:G235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="E236:G236"/>
+    <mergeCell ref="J290:J292"/>
+    <mergeCell ref="J304:J306"/>
+    <mergeCell ref="J318:J320"/>
+    <mergeCell ref="J330:J332"/>
+    <mergeCell ref="J343:J345"/>
+    <mergeCell ref="J358:J360"/>
+    <mergeCell ref="J206:J208"/>
+    <mergeCell ref="J221:J223"/>
+    <mergeCell ref="J235:J237"/>
+    <mergeCell ref="J249:J251"/>
+    <mergeCell ref="J263:J265"/>
+    <mergeCell ref="J277:J279"/>
+    <mergeCell ref="J126:J128"/>
+    <mergeCell ref="J140:J142"/>
+    <mergeCell ref="J154:J156"/>
+    <mergeCell ref="J167:J169"/>
+    <mergeCell ref="J181:J183"/>
+    <mergeCell ref="J193:J195"/>
+    <mergeCell ref="K343:K345"/>
+    <mergeCell ref="K358:K360"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="J111:J113"/>
+    <mergeCell ref="K263:K265"/>
+    <mergeCell ref="K277:K279"/>
+    <mergeCell ref="K290:K292"/>
+    <mergeCell ref="K304:K306"/>
+    <mergeCell ref="K318:K320"/>
+    <mergeCell ref="K330:K332"/>
+    <mergeCell ref="K181:K183"/>
+    <mergeCell ref="K193:K195"/>
+    <mergeCell ref="K206:K208"/>
+    <mergeCell ref="K221:K223"/>
+    <mergeCell ref="K235:K237"/>
+    <mergeCell ref="K249:K251"/>
+    <mergeCell ref="K95:K97"/>
+    <mergeCell ref="K111:K113"/>
+    <mergeCell ref="K126:K128"/>
+    <mergeCell ref="K140:K142"/>
+    <mergeCell ref="K154:K156"/>
+    <mergeCell ref="K167:K169"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="I330:I332"/>
+    <mergeCell ref="I343:I345"/>
+    <mergeCell ref="I358:I360"/>
+    <mergeCell ref="I263:I265"/>
+    <mergeCell ref="I277:I279"/>
+    <mergeCell ref="I290:I292"/>
+    <mergeCell ref="I304:I306"/>
+    <mergeCell ref="I318:I320"/>
+    <mergeCell ref="I181:I183"/>
+    <mergeCell ref="I193:I195"/>
+    <mergeCell ref="I206:I208"/>
+    <mergeCell ref="I221:I223"/>
+    <mergeCell ref="I235:I237"/>
+    <mergeCell ref="I249:I251"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="I111:I113"/>
+    <mergeCell ref="I126:I128"/>
+    <mergeCell ref="I140:I142"/>
+    <mergeCell ref="I154:I156"/>
+    <mergeCell ref="I167:I169"/>
+    <mergeCell ref="H304:H306"/>
+    <mergeCell ref="H318:H320"/>
+    <mergeCell ref="H330:H332"/>
+    <mergeCell ref="H343:H345"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="H249:H251"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="H126:H128"/>
+    <mergeCell ref="H140:H142"/>
+    <mergeCell ref="H154:H156"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H358:H360"/>
+    <mergeCell ref="H263:H265"/>
+    <mergeCell ref="H277:H279"/>
+    <mergeCell ref="H290:H292"/>
+    <mergeCell ref="H167:H169"/>
+    <mergeCell ref="H193:H195"/>
+    <mergeCell ref="H181:H183"/>
+    <mergeCell ref="H206:H208"/>
+    <mergeCell ref="H221:H223"/>
+    <mergeCell ref="H235:H237"/>
+    <mergeCell ref="E319:G319"/>
+    <mergeCell ref="A304:G304"/>
+    <mergeCell ref="A305:A306"/>
+    <mergeCell ref="B305:B306"/>
+    <mergeCell ref="C305:D305"/>
+    <mergeCell ref="E305:G305"/>
+    <mergeCell ref="A343:G343"/>
+    <mergeCell ref="A344:A345"/>
+    <mergeCell ref="B344:B345"/>
+    <mergeCell ref="C344:D344"/>
+    <mergeCell ref="E344:G344"/>
+    <mergeCell ref="A330:G330"/>
+    <mergeCell ref="A331:A332"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="C331:D331"/>
+    <mergeCell ref="E331:G331"/>
     <mergeCell ref="A263:G263"/>
     <mergeCell ref="A264:A265"/>
     <mergeCell ref="B264:B265"/>
@@ -12384,126 +12456,102 @@
     <mergeCell ref="A319:A320"/>
     <mergeCell ref="B319:B320"/>
     <mergeCell ref="C319:D319"/>
-    <mergeCell ref="E319:G319"/>
-    <mergeCell ref="A304:G304"/>
-    <mergeCell ref="A305:A306"/>
-    <mergeCell ref="B305:B306"/>
-    <mergeCell ref="C305:D305"/>
-    <mergeCell ref="E305:G305"/>
-    <mergeCell ref="A343:G343"/>
-    <mergeCell ref="A344:A345"/>
-    <mergeCell ref="B344:B345"/>
-    <mergeCell ref="C344:D344"/>
-    <mergeCell ref="E344:G344"/>
-    <mergeCell ref="A330:G330"/>
-    <mergeCell ref="A331:A332"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="C331:D331"/>
-    <mergeCell ref="E331:G331"/>
-    <mergeCell ref="H358:H360"/>
-    <mergeCell ref="H263:H265"/>
-    <mergeCell ref="H277:H279"/>
-    <mergeCell ref="H290:H292"/>
-    <mergeCell ref="H167:H169"/>
-    <mergeCell ref="H193:H195"/>
-    <mergeCell ref="H181:H183"/>
-    <mergeCell ref="H206:H208"/>
-    <mergeCell ref="H221:H223"/>
-    <mergeCell ref="H235:H237"/>
-    <mergeCell ref="I154:I156"/>
-    <mergeCell ref="I167:I169"/>
-    <mergeCell ref="H304:H306"/>
-    <mergeCell ref="H318:H320"/>
-    <mergeCell ref="H330:H332"/>
-    <mergeCell ref="H343:H345"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="H249:H251"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="H126:H128"/>
-    <mergeCell ref="H140:H142"/>
-    <mergeCell ref="H154:H156"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="I330:I332"/>
-    <mergeCell ref="I343:I345"/>
-    <mergeCell ref="I358:I360"/>
-    <mergeCell ref="I263:I265"/>
-    <mergeCell ref="I277:I279"/>
-    <mergeCell ref="I290:I292"/>
-    <mergeCell ref="I304:I306"/>
-    <mergeCell ref="I318:I320"/>
-    <mergeCell ref="I181:I183"/>
-    <mergeCell ref="I193:I195"/>
-    <mergeCell ref="I206:I208"/>
-    <mergeCell ref="I221:I223"/>
-    <mergeCell ref="I235:I237"/>
-    <mergeCell ref="I249:I251"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="I111:I113"/>
-    <mergeCell ref="I126:I128"/>
-    <mergeCell ref="I140:I142"/>
-    <mergeCell ref="K206:K208"/>
-    <mergeCell ref="K221:K223"/>
-    <mergeCell ref="K235:K237"/>
-    <mergeCell ref="K249:K251"/>
-    <mergeCell ref="K95:K97"/>
-    <mergeCell ref="K111:K113"/>
-    <mergeCell ref="K126:K128"/>
-    <mergeCell ref="K140:K142"/>
-    <mergeCell ref="K154:K156"/>
-    <mergeCell ref="K167:K169"/>
-    <mergeCell ref="J126:J128"/>
-    <mergeCell ref="J140:J142"/>
-    <mergeCell ref="J154:J156"/>
-    <mergeCell ref="J167:J169"/>
-    <mergeCell ref="J181:J183"/>
-    <mergeCell ref="J193:J195"/>
-    <mergeCell ref="K343:K345"/>
-    <mergeCell ref="K358:K360"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="J111:J113"/>
-    <mergeCell ref="K263:K265"/>
-    <mergeCell ref="K277:K279"/>
-    <mergeCell ref="K290:K292"/>
-    <mergeCell ref="K304:K306"/>
-    <mergeCell ref="K318:K320"/>
-    <mergeCell ref="K330:K332"/>
-    <mergeCell ref="K181:K183"/>
-    <mergeCell ref="K193:K195"/>
-    <mergeCell ref="J290:J292"/>
-    <mergeCell ref="J304:J306"/>
-    <mergeCell ref="J318:J320"/>
-    <mergeCell ref="J330:J332"/>
-    <mergeCell ref="J343:J345"/>
-    <mergeCell ref="J358:J360"/>
-    <mergeCell ref="J206:J208"/>
-    <mergeCell ref="J221:J223"/>
-    <mergeCell ref="J235:J237"/>
-    <mergeCell ref="J249:J251"/>
-    <mergeCell ref="J263:J265"/>
-    <mergeCell ref="J277:J279"/>
+    <mergeCell ref="A249:G249"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="E250:G250"/>
+    <mergeCell ref="A235:G235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="E236:G236"/>
+    <mergeCell ref="A221:G221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="E222:G222"/>
+    <mergeCell ref="A206:G206"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="E207:G207"/>
+    <mergeCell ref="A193:G193"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:G194"/>
+    <mergeCell ref="A181:G181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="E182:G182"/>
+    <mergeCell ref="A167:G167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="E168:G168"/>
+    <mergeCell ref="A154:G154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="E155:G155"/>
+    <mergeCell ref="A140:G140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="E141:G141"/>
+    <mergeCell ref="A126:G126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.47" bottom="0.4" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -12526,7 +12574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -13067,7 +13115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -13575,7 +13623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -14083,7 +14131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -14556,7 +14604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -15064,7 +15112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -15500,7 +15548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -15971,7 +16019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -16512,7 +16560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -17020,7 +17068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -17526,7 +17574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -18032,7 +18080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -18540,7 +18588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -19184,7 +19232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -19692,7 +19740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -20163,7 +20211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -20669,7 +20717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -21175,7 +21223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -21613,7 +21661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -22084,7 +22132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -22625,7 +22673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23157,7 +23205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -23628,7 +23676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23943,7 +23991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -24449,7 +24497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -24955,7 +25003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -25426,7 +25474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -25864,7 +25912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -26337,7 +26385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
